--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1342455382151572</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.319721912907358</v>
+        <v>-1.318727620157449</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1638850620761229</v>
+        <v>-0.1677410490842128</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1268597025387692</v>
+        <v>-0.1297053362679503</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1560700832154616</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.38706371100434</v>
+        <v>-1.388662463663885</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2311918190189231</v>
+        <v>-0.2358595927655582</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1318574471539497</v>
+        <v>-0.1340212384246764</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1820781872335957</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489890517902767</v>
+        <v>-1.492629568121312</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2789952535633647</v>
+        <v>-0.2819226499856367</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1363879763800394</v>
+        <v>-0.1389489007314933</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1997742238217231</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.640199548765636</v>
+        <v>-1.645585666172998</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.290536933721998</v>
+        <v>-0.2922831512387248</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1471908722046729</v>
+        <v>-0.1492714407342178</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2025651720432202</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.734765403565701</v>
+        <v>-1.739825930248791</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2891776289493621</v>
+        <v>-0.2913472604124523</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1665467297458495</v>
+        <v>-0.1668606400853949</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1899989246527383</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.575336912327017</v>
+        <v>-1.580476281607015</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2224432108581981</v>
+        <v>-0.2241032855375613</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1750661103563018</v>
+        <v>-0.1732585708197568</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1701396280888744</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.418735074192331</v>
+        <v>-1.421420102631513</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1450387613186735</v>
+        <v>-0.1480698211553999</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1532573720223985</v>
+        <v>-0.1531347279827622</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1508011161981701</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.149575208633313</v>
+        <v>-1.151414869227858</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00313230721898429</v>
+        <v>-0.006221768979347096</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1314895150350407</v>
+        <v>-0.1301710916089502</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1359879799889946</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7806093756759573</v>
+        <v>-0.7802005622105029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08180891056581108</v>
+        <v>0.08029192059935694</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1192455517446804</v>
+        <v>-0.1167590898458629</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1268292866593789</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4085862020162391</v>
+        <v>-0.4049667427988764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1276179194180715</v>
+        <v>0.1227632595158001</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0742497896790561</v>
+        <v>-0.07335186010314726</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1225273862839168</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0590526010209081</v>
+        <v>0.06373205515227048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1396165946291592</v>
+        <v>0.1365198326283419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02702352605064398</v>
+        <v>0.0277652304808256</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1174336010901782</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5989389637404904</v>
+        <v>0.6037352217191255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0590014993377263</v>
+        <v>0.05654861854499969</v>
       </c>
       <c r="G13" t="n">
-        <v>0.176624433589422</v>
+        <v>0.1795211690017849</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1024869521157327</v>
       </c>
       <c r="E14" t="n">
-        <v>1.16139620989743</v>
+        <v>1.167957666017974</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08997888776241551</v>
+        <v>-0.0899248659830519</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3054911981892056</v>
+        <v>0.3083047108603866</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.07193713049342033</v>
       </c>
       <c r="E15" t="n">
-        <v>1.810349625055983</v>
+        <v>1.814853873416437</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2613943738274604</v>
+        <v>-0.2577267330230977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4881096332557929</v>
+        <v>0.4893608944697017</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.0257662138184304</v>
       </c>
       <c r="E16" t="n">
-        <v>2.435717423353997</v>
+        <v>2.442915460442177</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4988332345633966</v>
+        <v>-0.4947889013515795</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6051456281749433</v>
+        <v>0.6070962524243974</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.03175310750678081</v>
       </c>
       <c r="E17" t="n">
-        <v>3.04665556636956</v>
+        <v>3.054122252306468</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6323969738716335</v>
+        <v>-0.6294812578340888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7923661348240748</v>
+        <v>0.7933064057946201</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.09304653535393942</v>
       </c>
       <c r="E18" t="n">
-        <v>3.643413722326218</v>
+        <v>3.655476639653306</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7553841248093277</v>
+        <v>-0.7527443578609648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9358363004291272</v>
+        <v>0.9350420342676729</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1526001583796774</v>
       </c>
       <c r="E19" t="n">
-        <v>4.177769422877438</v>
+        <v>4.189584132029072</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9138942457988306</v>
+        <v>-0.9107142610568315</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087780585153814</v>
+        <v>1.087503176016541</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2087181189325118</v>
       </c>
       <c r="E20" t="n">
-        <v>4.721492791979929</v>
+        <v>4.73296730992638</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.127478840825501</v>
+        <v>-1.125859647492683</v>
       </c>
       <c r="G20" t="n">
-        <v>1.247317119951225</v>
+        <v>1.246744781099589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2603506333170866</v>
       </c>
       <c r="E21" t="n">
-        <v>5.179628141993351</v>
+        <v>5.193533640011165</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.284010596651822</v>
+        <v>-1.282411843992277</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422889362931087</v>
+        <v>1.422997406489815</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3056238951682071</v>
       </c>
       <c r="E22" t="n">
-        <v>5.584391434043606</v>
+        <v>5.597888118595966</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.490392774446039</v>
+        <v>-1.489795614776858</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539490263519147</v>
+        <v>1.53857919351042</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3424169687633234</v>
       </c>
       <c r="E23" t="n">
-        <v>5.855060989328624</v>
+        <v>5.869998741346711</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.668029525426446</v>
+        <v>-1.669981609723991</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699739301784922</v>
+        <v>1.699654618995649</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.368948888426043</v>
       </c>
       <c r="E24" t="n">
-        <v>6.160627154034452</v>
+        <v>6.174915184652084</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.840231247388445</v>
+        <v>-1.842445410318309</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815354669911618</v>
+        <v>1.813170437967619</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.3843595075006453</v>
       </c>
       <c r="E25" t="n">
-        <v>6.373594148718667</v>
+        <v>6.387598930006663</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.974630134204682</v>
+        <v>-1.978151040175909</v>
       </c>
       <c r="G25" t="n">
-        <v>1.918504147438136</v>
+        <v>1.915659973757046</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3891547038998608</v>
       </c>
       <c r="E26" t="n">
-        <v>6.474724379735458</v>
+        <v>6.486807737735819</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.082069963046335</v>
+        <v>-2.084743311100789</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981410319434937</v>
+        <v>1.980094816105029</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3850333085659855</v>
       </c>
       <c r="E27" t="n">
-        <v>6.528156299670353</v>
+        <v>6.540441144307259</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.171116836062766</v>
+        <v>-2.172281224415265</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063946838014006</v>
+        <v>2.062244421940007</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.3741637066702334</v>
       </c>
       <c r="E28" t="n">
-        <v>6.638849845682596</v>
+        <v>6.65110110921341</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.232378993909204</v>
+        <v>-2.231450403323386</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093401848199998</v>
+        <v>2.092476177710362</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.3585933129496389</v>
       </c>
       <c r="E29" t="n">
-        <v>6.575788908588158</v>
+        <v>6.588536588469882</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.292654159246188</v>
+        <v>-2.292265786454006</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140123387109076</v>
+        <v>2.138515874160986</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.3396341494915399</v>
       </c>
       <c r="E30" t="n">
-        <v>6.539692139636623</v>
+        <v>6.555392036758164</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328726107380178</v>
+        <v>-2.327569749292179</v>
       </c>
       <c r="G30" t="n">
-        <v>2.125252797303172</v>
+        <v>2.122983882569899</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3180220654232735</v>
       </c>
       <c r="E31" t="n">
-        <v>6.45109204133601</v>
+        <v>6.466399185521096</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311516520532637</v>
+        <v>-2.309127151831865</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10958502123963</v>
+        <v>2.105315840621813</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2937873092002067</v>
       </c>
       <c r="E32" t="n">
-        <v>6.277582846308602</v>
+        <v>6.291010908600689</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317432635396999</v>
+        <v>-2.314883391430273</v>
       </c>
       <c r="G32" t="n">
-        <v>2.045875822792829</v>
+        <v>2.042673937329466</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2667443743193829</v>
       </c>
       <c r="E33" t="n">
-        <v>6.091233988369743</v>
+        <v>6.107866856221375</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.34213737911922</v>
+        <v>-2.337239647798266</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979147244894029</v>
+        <v>1.977399567329211</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2365515848648145</v>
       </c>
       <c r="E34" t="n">
-        <v>5.853701684555989</v>
+        <v>5.868927066047984</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382785847994163</v>
+        <v>-2.381098032401073</v>
       </c>
       <c r="G34" t="n">
-        <v>1.896952377568233</v>
+        <v>1.893762172489597</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.2030388928956252</v>
       </c>
       <c r="E35" t="n">
-        <v>5.62858270961114</v>
+        <v>5.64391175451759</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.370903246606303</v>
+        <v>-2.368875969832076</v>
       </c>
       <c r="G35" t="n">
-        <v>1.828170972053615</v>
+        <v>1.825664069481525</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.1661507739859394</v>
       </c>
       <c r="E36" t="n">
-        <v>5.438782297985373</v>
+        <v>5.45428216851846</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.329954737848678</v>
+        <v>-2.330481815209496</v>
       </c>
       <c r="G36" t="n">
-        <v>1.741355052520093</v>
+        <v>1.737642150224912</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.125906638839368</v>
       </c>
       <c r="E37" t="n">
-        <v>5.077840889335651</v>
+        <v>5.092336246782193</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270434417374694</v>
+        <v>-2.27058115220783</v>
       </c>
       <c r="G37" t="n">
-        <v>1.652919939653753</v>
+        <v>1.650576562467844</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.08243986430440466</v>
       </c>
       <c r="E38" t="n">
-        <v>4.801145715579453</v>
+        <v>4.818190316992721</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164194018039722</v>
+        <v>-2.165824891757267</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551285992045598</v>
+        <v>1.550883018772508</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.03674427222571387</v>
       </c>
       <c r="E39" t="n">
-        <v>4.507246795168077</v>
+        <v>4.524221314272982</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146093801856727</v>
+        <v>-2.147977263893999</v>
       </c>
       <c r="G39" t="n">
-        <v>1.43820526740472</v>
+        <v>1.439297383376719</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.00960016311009608</v>
       </c>
       <c r="E40" t="n">
-        <v>4.23900383981015</v>
+        <v>4.255871775404418</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117503140140553</v>
+        <v>-2.119075611934461</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384590841458461</v>
+        <v>1.382989168702734</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.05509901221477703</v>
       </c>
       <c r="E41" t="n">
-        <v>3.94643210311341</v>
+        <v>3.961051564647679</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027688281828304</v>
+        <v>-2.029330835930577</v>
       </c>
       <c r="G41" t="n">
-        <v>1.264141254102766</v>
+        <v>1.262638864617221</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.0985549888910279</v>
       </c>
       <c r="E42" t="n">
-        <v>3.692780868376023</v>
+        <v>3.706493640045838</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933001243036693</v>
+        <v>-1.934599995696238</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158943329104704</v>
+        <v>1.157778210728158</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1388966028406363</v>
       </c>
       <c r="E43" t="n">
-        <v>3.42068922625046</v>
+        <v>3.436008050820274</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865020673899939</v>
+        <v>-1.867039920409666</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065418488593456</v>
+        <v>1.064819868876183</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1752626454261505</v>
       </c>
       <c r="E44" t="n">
-        <v>3.15213820074535</v>
+        <v>3.167909640223346</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825300795610813</v>
+        <v>-1.826706821922358</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9309947809596739</v>
+        <v>0.9312546695198557</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2071475102685977</v>
       </c>
       <c r="E45" t="n">
-        <v>2.893985637743692</v>
+        <v>2.910024266022325</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743540292592062</v>
+        <v>-1.743404508119608</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8116139488065242</v>
+        <v>0.8106722177878881</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2345952473912713</v>
       </c>
       <c r="E46" t="n">
-        <v>2.646761534702486</v>
+        <v>2.660975102867482</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695698896797257</v>
+        <v>-1.695050635444894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7696010649906264</v>
+        <v>0.7700186387446263</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2581457111373623</v>
       </c>
       <c r="E47" t="n">
-        <v>2.346358100046112</v>
+        <v>2.361009682638381</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.64889851529127</v>
+        <v>-1.648279454900724</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6636497551776549</v>
+        <v>0.6629883533924732</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2786860230738142</v>
       </c>
       <c r="E48" t="n">
-        <v>2.156001410097709</v>
+        <v>2.169337489360069</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614764050973915</v>
+        <v>-1.613860281205643</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6011012949631261</v>
+        <v>0.6007830044793081</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2969108679090448</v>
       </c>
       <c r="E49" t="n">
-        <v>1.958528445754216</v>
+        <v>1.971765241746394</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566813151572292</v>
+        <v>-1.565265500595928</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5404114759683243</v>
+        <v>0.5395967691335972</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3132754252345196</v>
       </c>
       <c r="E50" t="n">
-        <v>1.8476859748367</v>
+        <v>1.859506524180697</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.494175759049584</v>
+        <v>-1.492220754655857</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4790456547074317</v>
+        <v>0.4783886330665228</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3287431630585963</v>
       </c>
       <c r="E51" t="n">
-        <v>1.670723766074294</v>
+        <v>1.682338448637472</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.438050050386963</v>
+        <v>-1.434592656507691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4200173704400839</v>
+        <v>0.4205867891955383</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3438541599684674</v>
       </c>
       <c r="E52" t="n">
-        <v>1.552432129796962</v>
+        <v>1.563887667118231</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.398831698617064</v>
+        <v>-1.394753784299156</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3396023017371055</v>
+        <v>0.3394533768318328</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3583848526459144</v>
       </c>
       <c r="E53" t="n">
-        <v>1.377661453219009</v>
+        <v>1.386242155849279</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.36045579459562</v>
+        <v>-1.357233468458984</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2721948014760327</v>
+        <v>0.2728416027803052</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3717822293827399</v>
       </c>
       <c r="E54" t="n">
-        <v>1.32353309034475</v>
+        <v>1.333886291357384</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.341397786864989</v>
+        <v>-1.338390087797717</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2219457863793189</v>
+        <v>0.2209719343026828</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3840563552646118</v>
       </c>
       <c r="E55" t="n">
-        <v>1.203016340776874</v>
+        <v>1.21107580623869</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304303805067362</v>
+        <v>-1.30234004038509</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1629729839394257</v>
+        <v>0.1649382086697888</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3956795156554286</v>
       </c>
       <c r="E56" t="n">
-        <v>1.1724181129357</v>
+        <v>1.180861571045425</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.25299771515283</v>
+        <v>-1.249293573146195</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1012815719542604</v>
+        <v>0.1048659900174412</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4078002221364265</v>
       </c>
       <c r="E57" t="n">
-        <v>1.080937339751725</v>
+        <v>1.089826112529177</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.243224153232288</v>
+        <v>-1.24110708350047</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05795756495272658</v>
+        <v>0.06137115738927112</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.421409736238087</v>
       </c>
       <c r="E58" t="n">
-        <v>1.026295039949467</v>
+        <v>1.036284688987464</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205433728495298</v>
+        <v>-1.203424702322208</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02011704666052518</v>
+        <v>-0.01548139397189006</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4372115603405081</v>
       </c>
       <c r="E59" t="n">
-        <v>0.917928810594132</v>
+        <v>0.9277038325627658</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.121991980099866</v>
+        <v>-1.119566840220866</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09688783532859548</v>
+        <v>-0.09182584859741502</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4552860331534753</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8905178677354121</v>
+        <v>0.9038641673344086</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102888710878416</v>
+        <v>-1.100418309508599</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.12395274678977</v>
+        <v>-0.1187447552494987</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.476009713994121</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7582331305548112</v>
+        <v>0.7708975876953533</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.073918436658606</v>
+        <v>-1.070605587540334</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1534486383223076</v>
+        <v>-0.1477559108158545</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4991439570145316</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7194922145106398</v>
+        <v>0.7313770059706367</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.068593641271062</v>
+        <v>-1.065530460376335</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2274643162428331</v>
+        <v>-0.2228111429771071</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.523950638669799</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6277588530069372</v>
+        <v>0.6405590946199338</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.10326394323778</v>
+        <v>-1.100031396764508</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2432605765383744</v>
+        <v>-0.2377182339852849</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5492721814212942</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5348180317320531</v>
+        <v>0.5511880909273215</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.090178992247056</v>
+        <v>-1.086049976245966</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2951798866510877</v>
+        <v>-0.2881424548529077</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5742456476374354</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4491584702865306</v>
+        <v>0.4658906214083443</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057222786739065</v>
+        <v>-1.053936218486429</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3290500822639877</v>
+        <v>-0.3207307282419899</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5984166735420922</v>
       </c>
       <c r="E66" t="n">
-        <v>0.401162309394089</v>
+        <v>0.4172242984421756</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072798579772879</v>
+        <v>-1.069420028490516</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3577487875388891</v>
+        <v>-0.3492513076498004</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6217599233715059</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3712342436266425</v>
+        <v>0.388703719034365</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.092190938516328</v>
+        <v>-1.087686690155875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3928264429229705</v>
+        <v>-0.3825447842667915</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.644152714951869</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2914250948813912</v>
+        <v>0.3092960835141136</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.106162138698234</v>
+        <v>-1.103100417851598</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.401853920269059</v>
+        <v>-0.3930731910503341</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6648724224212568</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1857088528110559</v>
+        <v>0.2049829476591417</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146525168171405</v>
+        <v>-1.144521982190678</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4265550138710524</v>
+        <v>-0.4161200501653279</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6831127552662085</v>
       </c>
       <c r="E70" t="n">
-        <v>0.122604114273891</v>
+        <v>0.1416095602732496</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194949123154482</v>
+        <v>-1.192319576542756</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4423863153207754</v>
+        <v>-0.4332566346083234</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6974675910170515</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07375382524826779</v>
+        <v>0.09078528622871776</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279001171651915</v>
+        <v>-1.278862467083278</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5021884250763048</v>
+        <v>-0.4937011655238526</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7057531495222077</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01421699232516313</v>
+        <v>0.004294957419468261</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.314906674303541</v>
+        <v>-1.315067279593541</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4957642134763066</v>
+        <v>-0.487952956189945</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7062738911819482</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02724646148843236</v>
+        <v>-0.009375472855709886</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305708371330816</v>
+        <v>-1.305137492527271</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5456788775602023</v>
+        <v>-0.5380253054676588</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6980368258485747</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003123998850559485</v>
+        <v>0.02070151781700931</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346065560611624</v>
+        <v>-1.345570604308806</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5292036949023885</v>
+        <v>-0.5236204710027537</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6810739239066276</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008568518181558023</v>
+        <v>0.02610807589764422</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.39540350569961</v>
+        <v>-1.395809399068883</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4805578126094924</v>
+        <v>-0.4744694120704032</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6555494173092532</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06128793464808932</v>
+        <v>0.07725502057026686</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342076709227261</v>
+        <v>-1.341900043408261</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4910789191525806</v>
+        <v>-0.4849029157280367</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6225566024960206</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1741846932295135</v>
+        <v>0.1903970672309638</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340372833105171</v>
+        <v>-1.340158206035807</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4362103118962317</v>
+        <v>-0.4307424317957785</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5833771009704697</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2608911091562175</v>
+        <v>0.2747075442404865</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306305530999998</v>
+        <v>-1.306006221141362</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4364570600235952</v>
+        <v>-0.4322798624355054</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5392943818352848</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3545444338994651</v>
+        <v>0.3665518693990983</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.324677316127902</v>
+        <v>-1.32083446955263</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4043433022640584</v>
+        <v>-0.400590978670423</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4912248385843329</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4596722765891642</v>
+        <v>0.4687566958107981</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338607634963262</v>
+        <v>-1.337283371344808</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3456084876629832</v>
+        <v>-0.3426299895575295</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4400185156451745</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5602491493795008</v>
+        <v>0.567009172040408</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286332073116367</v>
+        <v>-1.285310039452731</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2933548265374518</v>
+        <v>-0.2914611441635432</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3869848180866077</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6982017932490092</v>
+        <v>0.7026038382430989</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222485630149021</v>
+        <v>-1.220032749356294</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2604993643477334</v>
+        <v>-0.2581136457671885</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3328391641558292</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8550620598957853</v>
+        <v>0.8578711924226936</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.16526926556249</v>
+        <v>-1.164009244060036</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2169052484493814</v>
+        <v>-0.2150626677586547</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2781795063099504</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025928567878649</v>
+        <v>1.026835257743103</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.075006172486333</v>
+        <v>-1.073065768573515</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.16466764785285</v>
+        <v>-0.1655874781501225</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2238424586393339</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122976504433259</v>
+        <v>1.120355718110078</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.005594026196442</v>
+        <v>-1.002050489479807</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1299564645395866</v>
+        <v>-0.1315026554678589</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1705292982288324</v>
       </c>
       <c r="E86" t="n">
-        <v>1.289765098098214</v>
+        <v>1.285249169353033</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9289896830107357</v>
+        <v>-0.9258155384611002</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04485172136860945</v>
+        <v>-0.04666510109751806</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1185569384155422</v>
       </c>
       <c r="E87" t="n">
-        <v>1.386672870036097</v>
+        <v>1.383324979763643</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8287252605118535</v>
+        <v>-0.8258767066864906</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01600993138079902</v>
+        <v>-0.01720133062298051</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06876701411812265</v>
       </c>
       <c r="E88" t="n">
-        <v>1.474139971018164</v>
+        <v>1.470508831416075</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6999577791822518</v>
+        <v>-0.6987400990744339</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03526987766809631</v>
+        <v>0.03397481501146029</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02250264436995115</v>
       </c>
       <c r="E89" t="n">
-        <v>1.571850769406047</v>
+        <v>1.56799916254223</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5689651845621051</v>
+        <v>-0.5666699889631966</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08013423540553881</v>
+        <v>0.07983346549881161</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01798668850680905</v>
       </c>
       <c r="E90" t="n">
-        <v>1.633880912548303</v>
+        <v>1.627788131864941</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4396793861602307</v>
+        <v>-0.4383974639364129</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09381488601735331</v>
+        <v>0.09273007028580815</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05024527205278691</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67894383682611</v>
+        <v>1.671661116948657</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2811415242570006</v>
+        <v>-0.278320711345365</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1088168801514402</v>
+        <v>0.1068998370080771</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07186038571661198</v>
       </c>
       <c r="E92" t="n">
-        <v>1.708977026056101</v>
+        <v>1.701251911607103</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.120226704061771</v>
+        <v>-0.1195565419880439</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1038862977484415</v>
+        <v>0.1038337360171688</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08177726715034178</v>
       </c>
       <c r="E93" t="n">
-        <v>1.704447956878103</v>
+        <v>1.697625152149286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03885429573127716</v>
+        <v>0.0383739399093682</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09955141496653359</v>
+        <v>0.09943169102307908</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08145519683623272</v>
       </c>
       <c r="E94" t="n">
-        <v>1.653152087300207</v>
+        <v>1.645848926749482</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1505319141567926</v>
+        <v>0.1478439656214297</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06075063695063492</v>
+        <v>0.06015493732954417</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07548638193950644</v>
       </c>
       <c r="E95" t="n">
-        <v>1.564278960006595</v>
+        <v>1.555518671461143</v>
       </c>
       <c r="F95" t="n">
-        <v>0.235968088244406</v>
+        <v>0.2324639728262252</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01154701628701177</v>
+        <v>0.01188428739601168</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06822929803123327</v>
       </c>
       <c r="E96" t="n">
-        <v>1.440179252423628</v>
+        <v>1.432452677926539</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3155377891027483</v>
+        <v>0.311753344451113</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02905254097688642</v>
+        <v>-0.02801736688043215</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06286860476342621</v>
       </c>
       <c r="E97" t="n">
-        <v>1.286763239223306</v>
+        <v>1.277762042742854</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3643223759642807</v>
+        <v>0.3617001295930087</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04992246838833536</v>
+        <v>-0.04869164784769933</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.05984712396922155</v>
       </c>
       <c r="E98" t="n">
-        <v>1.152930851066342</v>
+        <v>1.145567828543889</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3828401659012757</v>
+        <v>0.3811552704043671</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08731283994841624</v>
+        <v>-0.0858630121941439</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.05864044765734806</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9977277390027469</v>
+        <v>0.9919313480818395</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3778570217670043</v>
+        <v>0.3764758162730047</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.127759092162769</v>
+        <v>-0.126239182100133</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05626102888794619</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8881511297800491</v>
+        <v>0.8843068231566865</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3466645543528309</v>
+        <v>0.3462177796370128</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1422442292726742</v>
+        <v>-0.1406921981520383</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0518587900893406</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7461994141895417</v>
+        <v>0.744148046621815</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3470222661351035</v>
+        <v>0.3477741909019215</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1347176813640399</v>
+        <v>-0.1332196720227675</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04095807345976178</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6341086021542991</v>
+        <v>0.6302161139439365</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3044896051988422</v>
+        <v>0.305035663184842</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946570356401147</v>
+        <v>-0.1944686894363875</v>
       </c>
     </row>
   </sheetData>
